--- a/UserStudies/tempSensing/All.xlsx
+++ b/UserStudies/tempSensing/All.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="135" windowWidth="15750" windowHeight="11400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Soroush" sheetId="1" r:id="rId1"/>
@@ -1725,11 +1725,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62729600"/>
-        <c:axId val="62731392"/>
+        <c:axId val="117345664"/>
+        <c:axId val="117359744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62729600"/>
+        <c:axId val="117345664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62731392"/>
+        <c:crossAx val="117359744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1746,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62731392"/>
+        <c:axId val="117359744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,13 +1757,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62729600"/>
+        <c:crossAx val="117345664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1918,11 +1919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61952000"/>
-        <c:axId val="61953536"/>
+        <c:axId val="117424128"/>
+        <c:axId val="117425664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61952000"/>
+        <c:axId val="117424128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61953536"/>
+        <c:crossAx val="117425664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61953536"/>
+        <c:axId val="117425664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,13 +1951,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61952000"/>
+        <c:crossAx val="117424128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2162,11 +2164,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63533440"/>
-        <c:axId val="63534976"/>
+        <c:axId val="118956416"/>
+        <c:axId val="118957952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63533440"/>
+        <c:axId val="118956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63534976"/>
+        <c:crossAx val="118957952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2183,7 +2185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63534976"/>
+        <c:axId val="118957952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2196,533 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63533440"/>
+        <c:crossAx val="118956416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Out</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rebecca01!$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.796734602764907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average During</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rebecca01!$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.728601654113366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Out of Turn</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Rebecca01!$B$4,Rebecca01!$B$6,Rebecca01!$B$8,Rebecca01!$B$10,Rebecca01!$B$12,Rebecca01!$B$14,Rebecca01!$B$16,Rebecca01!$B$18,Rebecca01!$B$20,Rebecca01!$B$22,Rebecca01!$B$24,Rebecca01!$B$26,Rebecca01!$B$28,Rebecca01!$B$30,Rebecca01!$B$32,Rebecca01!$B$34,Rebecca01!$B$36,Rebecca01!$B$38)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>30.980563380281684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.918783783783756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.976111111111113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.89833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.045625000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.713599999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.943076923076919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.906011560693656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.914728033472791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.678978102189792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.681254355400711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.852941176470576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.665925925925915</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.724339622641491</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.567032258064511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.767096774193551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.434400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.662499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>During Turn</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Rebecca01!$B$3,Rebecca01!$B$5,Rebecca01!$B$7,Rebecca01!$B$9,Rebecca01!$B$11,Rebecca01!$B$13,Rebecca01!$B$15,Rebecca01!$B$17,Rebecca01!$B$19,Rebecca01!$B$21,Rebecca01!$B$23,Rebecca01!$B$25,Rebecca01!$B$27,Rebecca01!$B$29,Rebecca01!$B$31,Rebecca01!$B$33,Rebecca01!$B$35,Rebecca01!$B$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>31.09194029850746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.664999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.696417910447753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.870740740740743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.014186046511622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.697543859649127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.925714285714282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.842500000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.987999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.715555555555561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.714042553191483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.771764705882354</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.4575</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.428421052631581</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.558235294117654</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.803888888888885</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.231025641025628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.642352941176469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="65197952"/>
+        <c:axId val="65444480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65197952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65444480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65444480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65197952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Out</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Ermal!$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.92960910867863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average During</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Ermal!$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.978919332702972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Out of Turn</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Ermal!$B$4,Ermal!$B$6,Ermal!$B$8,Ermal!$B$10,Ermal!$B$12,Ermal!$B$14,Ermal!$B$16,Ermal!$B$18,Ermal!$B$20,Ermal!$B$22,Ermal!$B$24,Ermal!$B$26,Ermal!$B$28,Ermal!$B$30,Ermal!$B$32,Ermal!$B$34,Ermal!$B$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>29.942105263157899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.258571428571425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.948474576271188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.882162162162164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.087480916030529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.869230769230761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.214054054054063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.939658119658123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.053396226415096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.754723926380365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.560869565217391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.977939393939366</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.64634146341465</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.777666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.783733333333341</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.943225806451604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.939999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>During Turn</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Ermal!$B$3,Ermal!$B$5,Ermal!$B$7,Ermal!$B$9,Ermal!$B$11,Ermal!$B$13,Ermal!$B$15,Ermal!$B$17,Ermal!$B$19,Ermal!$B$21,Ermal!$B$23,Ermal!$B$25,Ermal!$B$27,Ermal!$B$29,Ermal!$B$31,Ermal!$B$33,Ermal!$B$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>30.164545454545458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.08493506493506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.752222222222226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.87391304347825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.050434782608701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.210999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.106341463414633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.906129032258075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.099411764705895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.992156862745116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.111764705882351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.157826086956533</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.750227272727269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.69407407407407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.69125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.885396825396839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="65172224"/>
+        <c:axId val="65173760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65172224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65173760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65173760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65172224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2302,6 +2830,80 @@
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2634,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OY37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11992,7 +12594,7 @@
   <dimension ref="A1:HF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15792,7 +16394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -28120,8 +28722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LA45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28608,7 +29210,7 @@
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A3:A37" si="0">IF(B4&gt;B5,1,0)</f>
+        <f t="shared" ref="A4:A36" si="0">IF(B4&gt;B5,1,0)</f>
         <v>1</v>
       </c>
       <c r="B4">
@@ -37748,6 +38350,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37755,8 +38358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FX43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38045,7 +38648,7 @@
     </row>
     <row r="4" spans="1:180" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A3:A36" si="1">IF(B4&gt;B5,1,0)</f>
+        <f t="shared" ref="A4:A34" si="1">IF(B4&gt;B5,1,0)</f>
         <v>0</v>
       </c>
       <c r="B4">
@@ -45194,5 +45797,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>